--- a/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_勤怠情報登録・更新_知野明斗.xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム1/詳細設計書_勤怠情報登録・更新_知野明斗.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cleague-my.sharepoint.com/personal/kss-19200160_nsgcl_jp/Documents/ドキュメント/詳細設計書まとめ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{B566BD14-9596-4344-9106-0A5ED13852FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA7FE793-3ADF-4ADA-BC06-C6973C2F8049}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{B566BD14-9596-4344-9106-0A5ED13852FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E78BDF53-9107-41BB-A593-76A4C53C1384}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="2352" windowWidth="17280" windowHeight="8940" activeTab="3" xr2:uid="{FD457AF4-D9D7-4C5B-9954-4D72DFD2FBAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{FD457AF4-D9D7-4C5B-9954-4D72DFD2FBAD}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">イベント処理!$A$1:$AZ$133</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">イベント処理!$A$1:$AZ$137</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">イベント処理!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="173">
   <si>
     <t>作業内容</t>
     <rPh sb="0" eb="4">
@@ -457,19 +457,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>1.1.1.活性化制御</t>
-    <rPh sb="6" eb="8">
-      <t>カッセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>1.1.画面制御</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -730,13 +717,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所属部門ID</t>
-    <rPh sb="0" eb="4">
-      <t>ショゾクブモン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>DEPT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -904,13 +884,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>活性</t>
-    <rPh sb="0" eb="2">
-      <t>カッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤怠実績</t>
     <rPh sb="0" eb="2">
       <t>ｷﾝﾀｲ</t>
@@ -1069,23 +1042,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>非活性</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非活性</t>
-    <rPh sb="0" eb="3">
-      <t>ヒカッセイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>2.更新ボタンクリック処理</t>
     <rPh sb="2" eb="4">
       <t>コウシン</t>
@@ -1117,18 +1073,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T_EMPLOYEES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DEPT_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_CALENDAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出勤時間</t>
     <rPh sb="0" eb="2">
       <t>シュッキン</t>
@@ -1149,10 +1093,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>T_ATTENDANCE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 and
 and
@@ -1160,14 +1100,6 @@
 and
 and
 and</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMPLOYEES_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMPLOYEES_NAME</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1252,35 +1184,178 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>T_DEPT</t>
+    <t>1.1.1.表示・非表示制御</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CALENDAR_DATE</t>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>START_TIME</t>
+    <t>①必須項目入力</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>END_TIME</t>
+    <t>未入力の項目があった場合、エラーメッセージを表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>REST_HOURS_DAY</t>
+    <t>エラーメッセージ：未入力の項目があります。</t>
+    <rPh sb="9" eb="12">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STATUS_NAME</t>
+    <t>2.2.閉じるボタン処理</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OVERTIME_HOURS_DAY</t>
+    <t>・閉じるボタンをクリックしたら、”勤怠情報一覧（日別）画面に戻る。</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_CONTENT</t>
+    <t>・勤怠情報をDBに更新</t>
+    <rPh sb="1" eb="3">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勤怠情報をDBに保存</t>
+    <rPh sb="1" eb="3">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録完了メッセージを表示する、「はい」をクリックした場合、”勤怠情報一覧（日別）”画面に戻る</t>
+    <rPh sb="31" eb="33">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニチベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出勤時間</t>
+    <rPh sb="0" eb="4">
+      <t>シュッキンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤時間</t>
+    <rPh sb="0" eb="4">
+      <t>タイキンジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1953,7 +2028,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2468,6 +2543,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规 2" xfId="5" xr:uid="{617C6FE1-B333-45AE-8835-AA3C0D77924B}"/>
@@ -2832,11 +2909,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5348</xdr:rowOff>
+      <xdr:rowOff>24398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>114634</xdr:colOff>
+      <xdr:colOff>120984</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
@@ -2856,8 +2933,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1320800" y="868948"/>
-          <a:ext cx="1016334" cy="26402"/>
+          <a:off x="1320800" y="887998"/>
+          <a:ext cx="1022684" cy="7352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2882,15 +2959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>114634</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>103606</xdr:rowOff>
+      <xdr:colOff>120984</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>82549</xdr:colOff>
+      <xdr:colOff>88899</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>27740</xdr:rowOff>
+      <xdr:rowOff>46790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2905,7 +2982,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2337134" y="725906"/>
+          <a:off x="2343484" y="744956"/>
           <a:ext cx="1625265" cy="286084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3033,15 +3110,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>82549</xdr:colOff>
+      <xdr:colOff>88899</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5348</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>24398</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3058,9 +3135,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3962399" y="868948"/>
-          <a:ext cx="1968501" cy="1002"/>
+        <a:xfrm flipV="1">
+          <a:off x="3968749" y="869950"/>
+          <a:ext cx="1962151" cy="18048"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3367,7 +3444,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'[1]基本情報登録・更新（レイアウト）'!$A$10:$O$41" spid="_x0000_s3190"/>
+                  <a14:cameraTool cellRange="'[1]基本情報登録・更新（レイアウト）'!$A$10:$O$41" spid="_x0000_s3214"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3732,7 +3809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40991-0830-4157-B432-3470DDEB72BF}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AL47" sqref="AL47:AY48"/>
     </sheetView>
   </sheetViews>
@@ -6171,7 +6248,7 @@
       <c r="AJ45" s="96"/>
       <c r="AK45" s="96"/>
       <c r="AL45" s="97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM45" s="97"/>
       <c r="AN45" s="97"/>
@@ -6275,7 +6352,7 @@
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
       <c r="AF47" s="96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG47" s="96"/>
       <c r="AH47" s="96"/>
@@ -6608,7 +6685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5:T5"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="9.6"/>
@@ -9825,8 +9902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C28FCE-2039-4D64-8940-29591FF209BE}">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29:AZ29"/>
+    <sheetView topLeftCell="A44" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="9.6"/>
@@ -10162,7 +10239,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
@@ -10482,7 +10559,7 @@
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
       <c r="AE13" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
@@ -10611,7 +10688,7 @@
       <c r="AC17" s="21"/>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
@@ -10881,7 +10958,7 @@
       <c r="J22" s="128"/>
       <c r="K22" s="129"/>
       <c r="L22" s="127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" s="128"/>
       <c r="N22" s="128"/>
@@ -10932,7 +11009,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="127" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="128"/>
@@ -10944,7 +11021,7 @@
       <c r="J23" s="128"/>
       <c r="K23" s="129"/>
       <c r="L23" s="127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M23" s="128"/>
       <c r="N23" s="128"/>
@@ -10995,7 +11072,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="128"/>
       <c r="D24" s="128"/>
@@ -11007,7 +11084,7 @@
       <c r="J24" s="128"/>
       <c r="K24" s="129"/>
       <c r="L24" s="127" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M24" s="128"/>
       <c r="N24" s="128"/>
@@ -11070,7 +11147,7 @@
       <c r="J25" s="128"/>
       <c r="K25" s="129"/>
       <c r="L25" s="127" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M25" s="128"/>
       <c r="N25" s="128"/>
@@ -11133,7 +11210,7 @@
       <c r="J26" s="128"/>
       <c r="K26" s="129"/>
       <c r="L26" s="127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M26" s="128"/>
       <c r="N26" s="128"/>
@@ -11196,7 +11273,7 @@
       <c r="J27" s="128"/>
       <c r="K27" s="129"/>
       <c r="L27" s="127" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M27" s="128"/>
       <c r="N27" s="128"/>
@@ -11247,7 +11324,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="128"/>
       <c r="D28" s="128"/>
@@ -11259,7 +11336,7 @@
       <c r="J28" s="128"/>
       <c r="K28" s="129"/>
       <c r="L28" s="127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M28" s="128"/>
       <c r="N28" s="128"/>
@@ -11322,7 +11399,7 @@
       <c r="J29" s="128"/>
       <c r="K29" s="129"/>
       <c r="L29" s="127" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M29" s="128"/>
       <c r="N29" s="128"/>
@@ -11372,7 +11449,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="128"/>
       <c r="D30" s="128"/>
@@ -11384,7 +11461,7 @@
       <c r="J30" s="128"/>
       <c r="K30" s="129"/>
       <c r="L30" s="127" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M30" s="128"/>
       <c r="N30" s="128"/>
@@ -11446,7 +11523,7 @@
       <c r="J31" s="128"/>
       <c r="K31" s="129"/>
       <c r="L31" s="127" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M31" s="128"/>
       <c r="N31" s="128"/>
@@ -11730,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="127" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" s="128"/>
       <c r="D36" s="128"/>
@@ -11742,7 +11819,7 @@
       <c r="J36" s="128"/>
       <c r="K36" s="129"/>
       <c r="L36" s="127" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M36" s="128"/>
       <c r="N36" s="128"/>
@@ -11754,7 +11831,7 @@
       <c r="T36" s="128"/>
       <c r="U36" s="129"/>
       <c r="V36" s="130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W36" s="131"/>
       <c r="X36" s="127"/>
@@ -11793,7 +11870,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="127" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" s="128"/>
       <c r="D37" s="128"/>
@@ -11805,7 +11882,7 @@
       <c r="J37" s="128"/>
       <c r="K37" s="129"/>
       <c r="L37" s="127" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M37" s="128"/>
       <c r="N37" s="128"/>
@@ -11817,7 +11894,7 @@
       <c r="T37" s="128"/>
       <c r="U37" s="129"/>
       <c r="V37" s="130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W37" s="131"/>
       <c r="X37" s="127"/>
@@ -11856,7 +11933,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="127" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="128"/>
       <c r="D38" s="128"/>
@@ -11868,7 +11945,7 @@
       <c r="J38" s="128"/>
       <c r="K38" s="129"/>
       <c r="L38" s="127" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M38" s="128"/>
       <c r="N38" s="128"/>
@@ -11880,7 +11957,7 @@
       <c r="T38" s="128"/>
       <c r="U38" s="129"/>
       <c r="V38" s="130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W38" s="131"/>
       <c r="X38" s="127"/>
@@ -11919,7 +11996,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="127" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="128"/>
       <c r="D39" s="128"/>
@@ -11931,7 +12008,7 @@
       <c r="J39" s="128"/>
       <c r="K39" s="129"/>
       <c r="L39" s="127" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M39" s="128"/>
       <c r="N39" s="128"/>
@@ -11943,7 +12020,7 @@
       <c r="T39" s="128"/>
       <c r="U39" s="129"/>
       <c r="V39" s="130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W39" s="131"/>
       <c r="X39" s="127"/>
@@ -11982,7 +12059,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="127" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="128"/>
       <c r="D40" s="128"/>
@@ -11994,7 +12071,7 @@
       <c r="J40" s="128"/>
       <c r="K40" s="129"/>
       <c r="L40" s="127" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M40" s="128"/>
       <c r="N40" s="128"/>
@@ -12006,7 +12083,7 @@
       <c r="T40" s="128"/>
       <c r="U40" s="129"/>
       <c r="V40" s="130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W40" s="131"/>
       <c r="X40" s="127"/>
@@ -12045,7 +12122,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="127" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" s="128"/>
       <c r="D41" s="128"/>
@@ -12057,7 +12134,7 @@
       <c r="J41" s="128"/>
       <c r="K41" s="129"/>
       <c r="L41" s="127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M41" s="128"/>
       <c r="N41" s="128"/>
@@ -12069,7 +12146,7 @@
       <c r="T41" s="128"/>
       <c r="U41" s="129"/>
       <c r="V41" s="130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W41" s="131"/>
       <c r="X41" s="127"/>
@@ -13428,8 +13505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9D98D5-8778-4F3A-91A3-A4B6BC487BA1}">
   <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX27" sqref="AX27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BI42" sqref="BI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="9.6"/>
@@ -13582,7 +13659,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -13748,7 +13825,7 @@
       <c r="A7" s="22"/>
       <c r="B7" s="74"/>
       <c r="C7" s="136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="137"/>
       <c r="E7" s="137"/>
@@ -13788,7 +13865,7 @@
       <c r="AM7" s="21"/>
       <c r="AN7" s="21"/>
       <c r="AO7" s="148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AP7" s="148"/>
       <c r="AQ7" s="148"/>
@@ -13796,7 +13873,7 @@
       <c r="AS7" s="148"/>
       <c r="AT7" s="84"/>
       <c r="AU7" s="138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV7" s="139"/>
       <c r="AW7" s="139"/>
@@ -13824,21 +13901,21 @@
       <c r="Q8" s="84"/>
       <c r="R8" s="84"/>
       <c r="S8" s="149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T8" s="149"/>
       <c r="U8" s="149"/>
       <c r="V8" s="149"/>
       <c r="W8" s="85"/>
       <c r="X8" s="149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="149"/>
       <c r="Z8" s="149"/>
       <c r="AA8" s="149"/>
       <c r="AB8" s="85"/>
       <c r="AC8" s="149" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD8" s="149"/>
       <c r="AE8" s="149"/>
@@ -13853,7 +13930,7 @@
       <c r="AN8" s="21"/>
       <c r="AO8" s="21"/>
       <c r="AP8" s="147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ8" s="147"/>
       <c r="AR8" s="147"/>
@@ -14032,7 +14109,7 @@
       <c r="A12" s="22"/>
       <c r="B12" s="83"/>
       <c r="C12" s="135" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="135"/>
       <c r="E12" s="135"/>
@@ -16970,7 +17047,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -16989,11 +17066,11 @@
       <c r="O6" s="152"/>
       <c r="P6" s="152"/>
       <c r="Q6" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R6" s="153"/>
       <c r="S6" s="153" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T6" s="153"/>
       <c r="U6" s="152"/>
@@ -17004,7 +17081,7 @@
       <c r="Z6" s="152"/>
       <c r="AA6" s="152"/>
       <c r="AB6" s="152" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="152"/>
       <c r="AD6" s="152"/>
@@ -17014,7 +17091,7 @@
       <c r="AH6" s="152"/>
       <c r="AI6" s="152"/>
       <c r="AJ6" s="152" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AK6" s="152"/>
       <c r="AL6" s="152"/>
@@ -17024,7 +17101,7 @@
       <c r="AP6" s="152"/>
       <c r="AQ6" s="152"/>
       <c r="AR6" s="152" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AS6" s="152"/>
       <c r="AT6" s="152"/>
@@ -17044,7 +17121,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -17063,7 +17140,7 @@
       <c r="O7" s="152"/>
       <c r="P7" s="152"/>
       <c r="Q7" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R7" s="153"/>
       <c r="S7" s="153">
@@ -17078,7 +17155,7 @@
       <c r="Z7" s="152"/>
       <c r="AA7" s="152"/>
       <c r="AB7" s="152" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="AC7" s="152"/>
       <c r="AD7" s="152"/>
@@ -17088,7 +17165,7 @@
       <c r="AH7" s="152"/>
       <c r="AI7" s="152"/>
       <c r="AJ7" s="152" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AK7" s="152"/>
       <c r="AL7" s="152"/>
@@ -17098,7 +17175,7 @@
       <c r="AP7" s="152"/>
       <c r="AQ7" s="152"/>
       <c r="AR7" s="152" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS7" s="152"/>
       <c r="AT7" s="152"/>
@@ -17118,7 +17195,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -17137,7 +17214,7 @@
       <c r="O8" s="152"/>
       <c r="P8" s="152"/>
       <c r="Q8" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" s="153"/>
       <c r="S8" s="153">
@@ -17152,7 +17229,7 @@
       <c r="Z8" s="152"/>
       <c r="AA8" s="152"/>
       <c r="AB8" s="127" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="AC8" s="128"/>
       <c r="AD8" s="128"/>
@@ -17162,7 +17239,7 @@
       <c r="AH8" s="128"/>
       <c r="AI8" s="129"/>
       <c r="AJ8" s="127" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AK8" s="128"/>
       <c r="AL8" s="128"/>
@@ -17172,7 +17249,7 @@
       <c r="AP8" s="128"/>
       <c r="AQ8" s="129"/>
       <c r="AR8" s="152" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS8" s="152"/>
       <c r="AT8" s="152"/>
@@ -17192,7 +17269,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -17211,7 +17288,7 @@
       <c r="O9" s="152"/>
       <c r="P9" s="152"/>
       <c r="Q9" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R9" s="153"/>
       <c r="S9" s="153">
@@ -17226,7 +17303,7 @@
       <c r="Z9" s="152"/>
       <c r="AA9" s="152"/>
       <c r="AB9" s="152" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="AC9" s="152"/>
       <c r="AD9" s="152"/>
@@ -17236,7 +17313,7 @@
       <c r="AH9" s="152"/>
       <c r="AI9" s="152"/>
       <c r="AJ9" s="127" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="AK9" s="128"/>
       <c r="AL9" s="128"/>
@@ -17246,7 +17323,7 @@
       <c r="AP9" s="128"/>
       <c r="AQ9" s="129"/>
       <c r="AR9" s="152" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS9" s="152"/>
       <c r="AT9" s="152"/>
@@ -17266,7 +17343,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -17285,7 +17362,7 @@
       <c r="O10" s="152"/>
       <c r="P10" s="152"/>
       <c r="Q10" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="153"/>
       <c r="S10" s="153">
@@ -17300,7 +17377,7 @@
       <c r="Z10" s="152"/>
       <c r="AA10" s="152"/>
       <c r="AB10" s="152" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="AC10" s="152"/>
       <c r="AD10" s="152"/>
@@ -17310,7 +17387,7 @@
       <c r="AH10" s="152"/>
       <c r="AI10" s="152"/>
       <c r="AJ10" s="127" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AK10" s="128"/>
       <c r="AL10" s="128"/>
@@ -17338,7 +17415,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -17357,7 +17434,7 @@
       <c r="O11" s="152"/>
       <c r="P11" s="152"/>
       <c r="Q11" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="153"/>
       <c r="S11" s="153">
@@ -17372,7 +17449,7 @@
       <c r="Z11" s="152"/>
       <c r="AA11" s="152"/>
       <c r="AB11" s="152" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="AC11" s="152"/>
       <c r="AD11" s="152"/>
@@ -17382,7 +17459,7 @@
       <c r="AH11" s="152"/>
       <c r="AI11" s="152"/>
       <c r="AJ11" s="127" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AK11" s="128"/>
       <c r="AL11" s="128"/>
@@ -17410,7 +17487,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -17429,7 +17506,7 @@
       <c r="O12" s="152"/>
       <c r="P12" s="152"/>
       <c r="Q12" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="153"/>
       <c r="S12" s="153">
@@ -17444,7 +17521,7 @@
       <c r="Z12" s="152"/>
       <c r="AA12" s="152"/>
       <c r="AB12" s="152" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="AC12" s="152"/>
       <c r="AD12" s="152"/>
@@ -17454,7 +17531,7 @@
       <c r="AH12" s="152"/>
       <c r="AI12" s="152"/>
       <c r="AJ12" s="127" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="AK12" s="128"/>
       <c r="AL12" s="128"/>
@@ -17482,7 +17559,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -17501,7 +17578,7 @@
       <c r="O13" s="152"/>
       <c r="P13" s="152"/>
       <c r="Q13" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R13" s="153"/>
       <c r="S13" s="153">
@@ -17516,7 +17593,7 @@
       <c r="Z13" s="152"/>
       <c r="AA13" s="152"/>
       <c r="AB13" s="152" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="AC13" s="152"/>
       <c r="AD13" s="152"/>
@@ -17526,7 +17603,7 @@
       <c r="AH13" s="152"/>
       <c r="AI13" s="152"/>
       <c r="AJ13" s="127" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="128"/>
       <c r="AL13" s="128"/>
@@ -17573,7 +17650,7 @@
       <c r="O14" s="152"/>
       <c r="P14" s="152"/>
       <c r="Q14" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="153"/>
       <c r="S14" s="153">
@@ -17588,7 +17665,7 @@
       <c r="Z14" s="152"/>
       <c r="AA14" s="152"/>
       <c r="AB14" s="152" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="AC14" s="152"/>
       <c r="AD14" s="152"/>
@@ -17598,7 +17675,7 @@
       <c r="AH14" s="152"/>
       <c r="AI14" s="152"/>
       <c r="AJ14" s="127" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="AK14" s="128"/>
       <c r="AL14" s="128"/>
@@ -17645,7 +17722,7 @@
       <c r="O15" s="152"/>
       <c r="P15" s="152"/>
       <c r="Q15" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R15" s="153"/>
       <c r="S15" s="153">
@@ -17660,7 +17737,7 @@
       <c r="Z15" s="152"/>
       <c r="AA15" s="152"/>
       <c r="AB15" s="152" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="AC15" s="152"/>
       <c r="AD15" s="152"/>
@@ -17670,7 +17747,7 @@
       <c r="AH15" s="152"/>
       <c r="AI15" s="152"/>
       <c r="AJ15" s="127" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="128"/>
       <c r="AL15" s="128"/>
@@ -17698,7 +17775,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -17717,11 +17794,11 @@
       <c r="O16" s="152"/>
       <c r="P16" s="152"/>
       <c r="Q16" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R16" s="153"/>
       <c r="S16" s="153" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T16" s="153"/>
       <c r="U16" s="152"/>
@@ -17766,7 +17843,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -17785,11 +17862,11 @@
       <c r="O17" s="152"/>
       <c r="P17" s="152"/>
       <c r="Q17" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="153"/>
       <c r="S17" s="153" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T17" s="153"/>
       <c r="U17" s="152"/>
@@ -20461,12 +20538,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F9575B-FA89-4A4B-9430-8B34AD327187}">
-  <dimension ref="A1:AZ120"/>
+  <dimension ref="A1:AZ124"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AK12" sqref="AK12"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40:AH40"/>
+      <selection pane="bottomLeft" activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="9.6"/>
@@ -20476,7 +20553,7 @@
   <sheetData>
     <row r="1" spans="1:52" ht="10.199999999999999" thickTop="1">
       <c r="A1" s="104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="105"/>
       <c r="C1" s="105"/>
@@ -20488,13 +20565,13 @@
       <c r="I1" s="105"/>
       <c r="J1" s="106"/>
       <c r="K1" s="110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L1" s="110"/>
       <c r="M1" s="110"/>
       <c r="N1" s="110"/>
       <c r="O1" s="119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="119"/>
       <c r="Q1" s="119"/>
@@ -20506,13 +20583,13 @@
       <c r="W1" s="119"/>
       <c r="X1" s="119"/>
       <c r="Y1" s="110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="110"/>
       <c r="AA1" s="110"/>
       <c r="AB1" s="110"/>
       <c r="AC1" s="179" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD1" s="179"/>
       <c r="AE1" s="179"/>
@@ -20524,7 +20601,7 @@
       <c r="AK1" s="179"/>
       <c r="AL1" s="179"/>
       <c r="AM1" s="110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="110"/>
       <c r="AO1" s="110"/>
@@ -20555,13 +20632,13 @@
       <c r="I2" s="108"/>
       <c r="J2" s="109"/>
       <c r="K2" s="112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="112"/>
       <c r="M2" s="112"/>
       <c r="N2" s="112"/>
       <c r="O2" s="120" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P2" s="120"/>
       <c r="Q2" s="120"/>
@@ -20573,13 +20650,13 @@
       <c r="W2" s="120"/>
       <c r="X2" s="120"/>
       <c r="Y2" s="112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="112"/>
       <c r="AA2" s="112"/>
       <c r="AB2" s="112"/>
       <c r="AC2" s="177" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD2" s="177"/>
       <c r="AE2" s="177"/>
@@ -20591,7 +20668,7 @@
       <c r="AK2" s="177"/>
       <c r="AL2" s="177"/>
       <c r="AM2" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AN2" s="112"/>
       <c r="AO2" s="112"/>
@@ -20615,7 +20692,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -20726,7 +20803,7 @@
     <row r="6" spans="1:52">
       <c r="A6" s="51"/>
       <c r="B6" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -20837,7 +20914,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -20949,7 +21026,7 @@
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -20964,7 +21041,7 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
       <c r="R10" s="50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S10" s="50"/>
       <c r="T10" s="50"/>
@@ -21076,7 +21153,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
@@ -21085,7 +21162,7 @@
       <c r="K12" s="53"/>
       <c r="L12" s="52"/>
       <c r="M12" s="53" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="52"/>
@@ -21095,7 +21172,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T12" s="53"/>
       <c r="U12" s="53"/>
@@ -21104,7 +21181,7 @@
       <c r="X12" s="53"/>
       <c r="Y12" s="52"/>
       <c r="Z12" s="53" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AA12" s="53"/>
       <c r="AB12" s="52"/>
@@ -21142,7 +21219,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
@@ -21151,7 +21228,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="52"/>
       <c r="M13" s="53" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="N13" s="53"/>
       <c r="O13" s="52"/>
@@ -21161,7 +21238,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T13" s="53"/>
       <c r="U13" s="53"/>
@@ -21170,7 +21247,7 @@
       <c r="X13" s="53"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="53" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="AA13" s="53"/>
       <c r="AB13" s="52"/>
@@ -21484,7 +21561,7 @@
     <row r="19" spans="1:52">
       <c r="A19" s="51"/>
       <c r="B19" s="50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -21653,7 +21730,7 @@
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -21709,7 +21786,7 @@
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="50" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
@@ -21765,7 +21842,7 @@
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
       <c r="E24" s="50" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
@@ -21821,7 +21898,7 @@
       <c r="C25" s="50"/>
       <c r="D25" s="51"/>
       <c r="E25" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
@@ -21877,7 +21954,7 @@
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -21933,7 +22010,7 @@
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
@@ -21989,7 +22066,7 @@
       <c r="C28" s="50"/>
       <c r="D28" s="51"/>
       <c r="E28" s="50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
@@ -22263,7 +22340,7 @@
       <c r="C33" s="50"/>
       <c r="D33" s="51"/>
       <c r="E33" s="50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
@@ -22642,10 +22719,10 @@
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
       <c r="D40" s="95" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E40" s="171" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F40" s="171"/>
       <c r="G40" s="171"/>
@@ -22977,7 +23054,7 @@
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
@@ -24017,7 +24094,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -24128,7 +24205,7 @@
     <row r="67" spans="1:52">
       <c r="A67" s="45"/>
       <c r="B67" s="94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="43"/>
@@ -24238,17 +24315,20 @@
     <row r="69" spans="1:52">
       <c r="A69" s="39"/>
       <c r="B69" s="93" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AZ69" s="38"/>
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="39"/>
+      <c r="B70" s="93"/>
       <c r="AZ70" s="38"/>
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="39"/>
-      <c r="B71" s="93"/>
+      <c r="B71" s="93" t="s">
+        <v>165</v>
+      </c>
       <c r="AZ71" s="38"/>
     </row>
     <row r="72" spans="1:52">
@@ -24257,192 +24337,198 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="39"/>
-      <c r="C73" s="92"/>
+      <c r="B73" s="93" t="s">
+        <v>159</v>
+      </c>
       <c r="AZ73" s="38"/>
     </row>
     <row r="74" spans="1:52">
       <c r="A74" s="39"/>
-      <c r="D74" s="92"/>
+      <c r="C74" s="34" t="s">
+        <v>160</v>
+      </c>
       <c r="AZ74" s="38"/>
     </row>
     <row r="75" spans="1:52">
       <c r="A75" s="39"/>
+      <c r="C75" s="92"/>
+      <c r="E75" s="34" t="s">
+        <v>161</v>
+      </c>
       <c r="AZ75" s="38"/>
     </row>
     <row r="76" spans="1:52">
-      <c r="A76" s="45"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="43"/>
-      <c r="AF76" s="43"/>
-      <c r="AG76" s="43"/>
-      <c r="AH76" s="43"/>
-      <c r="AI76" s="43"/>
-      <c r="AJ76" s="43"/>
-      <c r="AK76" s="43"/>
-      <c r="AL76" s="43"/>
-      <c r="AM76" s="43"/>
-      <c r="AN76" s="43"/>
-      <c r="AO76" s="43"/>
-      <c r="AP76" s="43"/>
-      <c r="AQ76" s="43"/>
-      <c r="AR76" s="43"/>
-      <c r="AS76" s="43"/>
-      <c r="AT76" s="43"/>
-      <c r="AU76" s="43"/>
-      <c r="AV76" s="43"/>
-      <c r="AW76" s="43"/>
-      <c r="AX76" s="43"/>
-      <c r="AY76" s="43"/>
-      <c r="AZ76" s="44"/>
+      <c r="A76" s="39"/>
+      <c r="D76" s="92"/>
+      <c r="AZ76" s="38"/>
     </row>
     <row r="77" spans="1:52">
-      <c r="A77" s="45"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="43"/>
-      <c r="AE77" s="43"/>
-      <c r="AF77" s="43"/>
-      <c r="AG77" s="43"/>
-      <c r="AH77" s="43"/>
-      <c r="AI77" s="43"/>
-      <c r="AJ77" s="43"/>
-      <c r="AK77" s="43"/>
-      <c r="AL77" s="43"/>
-      <c r="AM77" s="43"/>
-      <c r="AN77" s="43"/>
-      <c r="AO77" s="43"/>
-      <c r="AP77" s="43"/>
-      <c r="AQ77" s="43"/>
-      <c r="AR77" s="43"/>
-      <c r="AS77" s="43"/>
-      <c r="AT77" s="43"/>
-      <c r="AU77" s="43"/>
-      <c r="AV77" s="43"/>
-      <c r="AW77" s="43"/>
-      <c r="AX77" s="43"/>
-      <c r="AY77" s="43"/>
-      <c r="AZ77" s="44"/>
+      <c r="A77" s="39"/>
+      <c r="AZ77" s="38"/>
     </row>
     <row r="78" spans="1:52">
-      <c r="A78" s="172" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="173"/>
-      <c r="F78" s="173"/>
-      <c r="G78" s="173"/>
-      <c r="H78" s="173"/>
-      <c r="I78" s="173"/>
-      <c r="J78" s="173"/>
-      <c r="K78" s="173"/>
-      <c r="L78" s="173"/>
-      <c r="M78" s="173"/>
-      <c r="N78" s="173"/>
-      <c r="O78" s="173"/>
-      <c r="P78" s="173"/>
-      <c r="Q78" s="173"/>
-      <c r="R78" s="173"/>
-      <c r="S78" s="173"/>
-      <c r="T78" s="173"/>
-      <c r="U78" s="173"/>
-      <c r="V78" s="173"/>
-      <c r="W78" s="173"/>
-      <c r="X78" s="173"/>
-      <c r="Y78" s="173"/>
-      <c r="Z78" s="173"/>
-      <c r="AA78" s="173"/>
-      <c r="AB78" s="173"/>
-      <c r="AC78" s="173"/>
-      <c r="AD78" s="173"/>
-      <c r="AE78" s="173"/>
-      <c r="AF78" s="173"/>
-      <c r="AG78" s="173"/>
-      <c r="AH78" s="173"/>
-      <c r="AI78" s="173"/>
-      <c r="AJ78" s="173"/>
-      <c r="AK78" s="173"/>
-      <c r="AL78" s="173"/>
-      <c r="AM78" s="173"/>
-      <c r="AN78" s="173"/>
-      <c r="AO78" s="173"/>
-      <c r="AP78" s="173"/>
-      <c r="AQ78" s="173"/>
-      <c r="AR78" s="173"/>
-      <c r="AS78" s="173"/>
-      <c r="AT78" s="173"/>
-      <c r="AU78" s="173"/>
-      <c r="AV78" s="173"/>
-      <c r="AW78" s="173"/>
-      <c r="AX78" s="173"/>
-      <c r="AY78" s="173"/>
-      <c r="AZ78" s="174"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="43"/>
+      <c r="AB78" s="43"/>
+      <c r="AC78" s="43"/>
+      <c r="AD78" s="43"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="43"/>
+      <c r="AG78" s="43"/>
+      <c r="AH78" s="43"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="43"/>
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="43"/>
+      <c r="AM78" s="43"/>
+      <c r="AN78" s="43"/>
+      <c r="AO78" s="43"/>
+      <c r="AP78" s="43"/>
+      <c r="AQ78" s="43"/>
+      <c r="AR78" s="43"/>
+      <c r="AS78" s="43"/>
+      <c r="AT78" s="43"/>
+      <c r="AU78" s="43"/>
+      <c r="AV78" s="43"/>
+      <c r="AW78" s="43"/>
+      <c r="AX78" s="43"/>
+      <c r="AY78" s="43"/>
+      <c r="AZ78" s="44"/>
     </row>
     <row r="79" spans="1:52">
-      <c r="A79" s="39"/>
-      <c r="AZ79" s="38"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="43"/>
+      <c r="AB79" s="43"/>
+      <c r="AC79" s="43"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="43"/>
+      <c r="AG79" s="43"/>
+      <c r="AH79" s="43"/>
+      <c r="AI79" s="43"/>
+      <c r="AJ79" s="43"/>
+      <c r="AK79" s="43"/>
+      <c r="AL79" s="43"/>
+      <c r="AM79" s="43"/>
+      <c r="AN79" s="43"/>
+      <c r="AO79" s="43"/>
+      <c r="AP79" s="43"/>
+      <c r="AQ79" s="43"/>
+      <c r="AR79" s="43"/>
+      <c r="AS79" s="43"/>
+      <c r="AT79" s="43"/>
+      <c r="AU79" s="43"/>
+      <c r="AV79" s="43"/>
+      <c r="AW79" s="43"/>
+      <c r="AX79" s="43"/>
+      <c r="AY79" s="43"/>
+      <c r="AZ79" s="44"/>
     </row>
     <row r="80" spans="1:52">
-      <c r="A80" s="39"/>
-      <c r="B80" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ80" s="38"/>
+      <c r="A80" s="172" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="173"/>
+      <c r="I80" s="173"/>
+      <c r="J80" s="173"/>
+      <c r="K80" s="173"/>
+      <c r="L80" s="173"/>
+      <c r="M80" s="173"/>
+      <c r="N80" s="173"/>
+      <c r="O80" s="173"/>
+      <c r="P80" s="173"/>
+      <c r="Q80" s="173"/>
+      <c r="R80" s="173"/>
+      <c r="S80" s="173"/>
+      <c r="T80" s="173"/>
+      <c r="U80" s="173"/>
+      <c r="V80" s="173"/>
+      <c r="W80" s="173"/>
+      <c r="X80" s="173"/>
+      <c r="Y80" s="173"/>
+      <c r="Z80" s="173"/>
+      <c r="AA80" s="173"/>
+      <c r="AB80" s="173"/>
+      <c r="AC80" s="173"/>
+      <c r="AD80" s="173"/>
+      <c r="AE80" s="173"/>
+      <c r="AF80" s="173"/>
+      <c r="AG80" s="173"/>
+      <c r="AH80" s="173"/>
+      <c r="AI80" s="173"/>
+      <c r="AJ80" s="173"/>
+      <c r="AK80" s="173"/>
+      <c r="AL80" s="173"/>
+      <c r="AM80" s="173"/>
+      <c r="AN80" s="173"/>
+      <c r="AO80" s="173"/>
+      <c r="AP80" s="173"/>
+      <c r="AQ80" s="173"/>
+      <c r="AR80" s="173"/>
+      <c r="AS80" s="173"/>
+      <c r="AT80" s="173"/>
+      <c r="AU80" s="173"/>
+      <c r="AV80" s="173"/>
+      <c r="AW80" s="173"/>
+      <c r="AX80" s="173"/>
+      <c r="AY80" s="173"/>
+      <c r="AZ80" s="174"/>
     </row>
     <row r="81" spans="1:52">
       <c r="A81" s="39"/>
@@ -24451,17 +24537,20 @@
     <row r="82" spans="1:52">
       <c r="A82" s="39"/>
       <c r="B82" s="93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AZ82" s="38"/>
     </row>
     <row r="83" spans="1:52">
       <c r="A83" s="39"/>
+      <c r="B83" s="93"/>
       <c r="AZ83" s="38"/>
     </row>
     <row r="84" spans="1:52">
       <c r="A84" s="39"/>
-      <c r="B84" s="93"/>
+      <c r="B84" s="93" t="s">
+        <v>164</v>
+      </c>
       <c r="AZ84" s="38"/>
     </row>
     <row r="85" spans="1:52">
@@ -24470,16 +24559,20 @@
     </row>
     <row r="86" spans="1:52">
       <c r="A86" s="39"/>
-      <c r="C86" s="92"/>
+      <c r="B86" s="93" t="s">
+        <v>136</v>
+      </c>
       <c r="AZ86" s="38"/>
     </row>
     <row r="87" spans="1:52">
       <c r="A87" s="39"/>
-      <c r="D87" s="92"/>
       <c r="AZ87" s="38"/>
     </row>
     <row r="88" spans="1:52">
       <c r="A88" s="39"/>
+      <c r="B88" s="93" t="s">
+        <v>166</v>
+      </c>
       <c r="AZ88" s="38"/>
     </row>
     <row r="89" spans="1:52">
@@ -24488,63 +24581,13 @@
     </row>
     <row r="90" spans="1:52">
       <c r="A90" s="39"/>
+      <c r="C90" s="92"/>
       <c r="AZ90" s="38"/>
     </row>
     <row r="91" spans="1:52">
-      <c r="A91" s="172" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" s="173"/>
-      <c r="C91" s="173"/>
-      <c r="D91" s="173"/>
-      <c r="E91" s="173"/>
-      <c r="F91" s="173"/>
-      <c r="G91" s="173"/>
-      <c r="H91" s="173"/>
-      <c r="I91" s="173"/>
-      <c r="J91" s="173"/>
-      <c r="K91" s="173"/>
-      <c r="L91" s="173"/>
-      <c r="M91" s="173"/>
-      <c r="N91" s="173"/>
-      <c r="O91" s="173"/>
-      <c r="P91" s="173"/>
-      <c r="Q91" s="173"/>
-      <c r="R91" s="173"/>
-      <c r="S91" s="173"/>
-      <c r="T91" s="173"/>
-      <c r="U91" s="173"/>
-      <c r="V91" s="173"/>
-      <c r="W91" s="173"/>
-      <c r="X91" s="173"/>
-      <c r="Y91" s="173"/>
-      <c r="Z91" s="173"/>
-      <c r="AA91" s="173"/>
-      <c r="AB91" s="173"/>
-      <c r="AC91" s="173"/>
-      <c r="AD91" s="173"/>
-      <c r="AE91" s="173"/>
-      <c r="AF91" s="173"/>
-      <c r="AG91" s="173"/>
-      <c r="AH91" s="173"/>
-      <c r="AI91" s="173"/>
-      <c r="AJ91" s="173"/>
-      <c r="AK91" s="173"/>
-      <c r="AL91" s="173"/>
-      <c r="AM91" s="173"/>
-      <c r="AN91" s="173"/>
-      <c r="AO91" s="173"/>
-      <c r="AP91" s="173"/>
-      <c r="AQ91" s="173"/>
-      <c r="AR91" s="173"/>
-      <c r="AS91" s="173"/>
-      <c r="AT91" s="173"/>
-      <c r="AU91" s="173"/>
-      <c r="AV91" s="173"/>
-      <c r="AW91" s="173"/>
-      <c r="AX91" s="173"/>
-      <c r="AY91" s="173"/>
-      <c r="AZ91" s="174"/>
+      <c r="A91" s="39"/>
+      <c r="D91" s="92"/>
+      <c r="AZ91" s="38"/>
     </row>
     <row r="92" spans="1:52">
       <c r="A92" s="39"/>
@@ -24552,9 +24595,6 @@
     </row>
     <row r="93" spans="1:52">
       <c r="A93" s="39"/>
-      <c r="B93" s="93" t="s">
-        <v>136</v>
-      </c>
       <c r="AZ93" s="38"/>
     </row>
     <row r="94" spans="1:52">
@@ -24562,16 +24602,70 @@
       <c r="AZ94" s="38"/>
     </row>
     <row r="95" spans="1:52">
-      <c r="A95" s="39"/>
-      <c r="AZ95" s="38"/>
+      <c r="A95" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="173"/>
+      <c r="C95" s="173"/>
+      <c r="D95" s="173"/>
+      <c r="E95" s="173"/>
+      <c r="F95" s="173"/>
+      <c r="G95" s="173"/>
+      <c r="H95" s="173"/>
+      <c r="I95" s="173"/>
+      <c r="J95" s="173"/>
+      <c r="K95" s="173"/>
+      <c r="L95" s="173"/>
+      <c r="M95" s="173"/>
+      <c r="N95" s="173"/>
+      <c r="O95" s="173"/>
+      <c r="P95" s="173"/>
+      <c r="Q95" s="173"/>
+      <c r="R95" s="173"/>
+      <c r="S95" s="173"/>
+      <c r="T95" s="173"/>
+      <c r="U95" s="173"/>
+      <c r="V95" s="173"/>
+      <c r="W95" s="173"/>
+      <c r="X95" s="173"/>
+      <c r="Y95" s="173"/>
+      <c r="Z95" s="173"/>
+      <c r="AA95" s="173"/>
+      <c r="AB95" s="173"/>
+      <c r="AC95" s="173"/>
+      <c r="AD95" s="173"/>
+      <c r="AE95" s="173"/>
+      <c r="AF95" s="173"/>
+      <c r="AG95" s="173"/>
+      <c r="AH95" s="173"/>
+      <c r="AI95" s="173"/>
+      <c r="AJ95" s="173"/>
+      <c r="AK95" s="173"/>
+      <c r="AL95" s="173"/>
+      <c r="AM95" s="173"/>
+      <c r="AN95" s="173"/>
+      <c r="AO95" s="173"/>
+      <c r="AP95" s="173"/>
+      <c r="AQ95" s="173"/>
+      <c r="AR95" s="173"/>
+      <c r="AS95" s="173"/>
+      <c r="AT95" s="173"/>
+      <c r="AU95" s="173"/>
+      <c r="AV95" s="173"/>
+      <c r="AW95" s="173"/>
+      <c r="AX95" s="173"/>
+      <c r="AY95" s="173"/>
+      <c r="AZ95" s="174"/>
     </row>
     <row r="96" spans="1:52">
       <c r="A96" s="39"/>
-      <c r="B96" s="43"/>
       <c r="AZ96" s="38"/>
     </row>
     <row r="97" spans="1:52">
       <c r="A97" s="39"/>
+      <c r="B97" s="93" t="s">
+        <v>133</v>
+      </c>
       <c r="AZ97" s="38"/>
     </row>
     <row r="98" spans="1:52">
@@ -24584,63 +24678,16 @@
     </row>
     <row r="100" spans="1:52">
       <c r="A100" s="39"/>
+      <c r="B100" s="43"/>
       <c r="AZ100" s="38"/>
     </row>
+    <row r="101" spans="1:52">
+      <c r="A101" s="39"/>
+      <c r="AZ101" s="38"/>
+    </row>
     <row r="102" spans="1:52">
-      <c r="A102" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" s="91"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="91"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="91"/>
-      <c r="H102" s="91"/>
-      <c r="I102" s="91"/>
-      <c r="J102" s="91"/>
-      <c r="K102" s="91"/>
-      <c r="L102" s="91"/>
-      <c r="M102" s="91"/>
-      <c r="N102" s="91"/>
-      <c r="O102" s="91"/>
-      <c r="P102" s="91"/>
-      <c r="Q102" s="91"/>
-      <c r="R102" s="91"/>
-      <c r="S102" s="91"/>
-      <c r="T102" s="91"/>
-      <c r="U102" s="91"/>
-      <c r="V102" s="91"/>
-      <c r="W102" s="91"/>
-      <c r="X102" s="91"/>
-      <c r="Y102" s="91"/>
-      <c r="Z102" s="91"/>
-      <c r="AA102" s="91"/>
-      <c r="AB102" s="91"/>
-      <c r="AC102" s="91"/>
-      <c r="AD102" s="91"/>
-      <c r="AE102" s="91"/>
-      <c r="AF102" s="91"/>
-      <c r="AG102" s="91"/>
-      <c r="AH102" s="91"/>
-      <c r="AI102" s="91"/>
-      <c r="AJ102" s="91"/>
-      <c r="AK102" s="91"/>
-      <c r="AL102" s="91"/>
-      <c r="AM102" s="91"/>
-      <c r="AN102" s="91"/>
-      <c r="AO102" s="91"/>
-      <c r="AP102" s="91"/>
-      <c r="AQ102" s="91"/>
-      <c r="AR102" s="91"/>
-      <c r="AS102" s="91"/>
-      <c r="AT102" s="91"/>
-      <c r="AU102" s="91"/>
-      <c r="AV102" s="91"/>
-      <c r="AW102" s="91"/>
-      <c r="AX102" s="91"/>
-      <c r="AY102" s="91"/>
-      <c r="AZ102" s="91"/>
+      <c r="A102" s="39"/>
+      <c r="AZ102" s="38"/>
     </row>
     <row r="103" spans="1:52">
       <c r="A103" s="39"/>
@@ -24650,16 +24697,72 @@
       <c r="A104" s="39"/>
       <c r="AZ104" s="38"/>
     </row>
-    <row r="105" spans="1:52">
-      <c r="A105" s="39"/>
-      <c r="AZ105" s="38"/>
+    <row r="105" spans="1:52" s="180" customFormat="1">
+      <c r="A105" s="181" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="106" spans="1:52">
-      <c r="A106" s="39"/>
-      <c r="AZ106" s="38"/>
+      <c r="A106" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="91"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+      <c r="J106" s="91"/>
+      <c r="K106" s="91"/>
+      <c r="L106" s="91"/>
+      <c r="M106" s="91"/>
+      <c r="N106" s="91"/>
+      <c r="O106" s="91"/>
+      <c r="P106" s="91"/>
+      <c r="Q106" s="91"/>
+      <c r="R106" s="91"/>
+      <c r="S106" s="91"/>
+      <c r="T106" s="91"/>
+      <c r="U106" s="91"/>
+      <c r="V106" s="91"/>
+      <c r="W106" s="91"/>
+      <c r="X106" s="91"/>
+      <c r="Y106" s="91"/>
+      <c r="Z106" s="91"/>
+      <c r="AA106" s="91"/>
+      <c r="AB106" s="91"/>
+      <c r="AC106" s="91"/>
+      <c r="AD106" s="91"/>
+      <c r="AE106" s="91"/>
+      <c r="AF106" s="91"/>
+      <c r="AG106" s="91"/>
+      <c r="AH106" s="91"/>
+      <c r="AI106" s="91"/>
+      <c r="AJ106" s="91"/>
+      <c r="AK106" s="91"/>
+      <c r="AL106" s="91"/>
+      <c r="AM106" s="91"/>
+      <c r="AN106" s="91"/>
+      <c r="AO106" s="91"/>
+      <c r="AP106" s="91"/>
+      <c r="AQ106" s="91"/>
+      <c r="AR106" s="91"/>
+      <c r="AS106" s="91"/>
+      <c r="AT106" s="91"/>
+      <c r="AU106" s="91"/>
+      <c r="AV106" s="91"/>
+      <c r="AW106" s="91"/>
+      <c r="AX106" s="91"/>
+      <c r="AY106" s="91"/>
+      <c r="AZ106" s="91"/>
     </row>
     <row r="107" spans="1:52">
       <c r="A107" s="39"/>
+      <c r="B107" s="93" t="s">
+        <v>163</v>
+      </c>
       <c r="AZ107" s="38"/>
     </row>
     <row r="108" spans="1:52">
@@ -24711,65 +24814,81 @@
       <c r="AZ119" s="38"/>
     </row>
     <row r="120" spans="1:52">
-      <c r="A120" s="37"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="36"/>
-      <c r="M120" s="36"/>
-      <c r="N120" s="36"/>
-      <c r="O120" s="36"/>
-      <c r="P120" s="36"/>
-      <c r="Q120" s="36"/>
-      <c r="R120" s="36"/>
-      <c r="S120" s="36"/>
-      <c r="T120" s="36"/>
-      <c r="U120" s="36"/>
-      <c r="V120" s="36"/>
-      <c r="W120" s="36"/>
-      <c r="X120" s="36"/>
-      <c r="Y120" s="36"/>
-      <c r="Z120" s="36"/>
-      <c r="AA120" s="36"/>
-      <c r="AB120" s="36"/>
-      <c r="AC120" s="36"/>
-      <c r="AD120" s="36"/>
-      <c r="AE120" s="36"/>
-      <c r="AF120" s="36"/>
-      <c r="AG120" s="36"/>
-      <c r="AH120" s="36"/>
-      <c r="AI120" s="36"/>
-      <c r="AJ120" s="36"/>
-      <c r="AK120" s="36"/>
-      <c r="AL120" s="36"/>
-      <c r="AM120" s="36"/>
-      <c r="AN120" s="36"/>
-      <c r="AO120" s="36"/>
-      <c r="AP120" s="36"/>
-      <c r="AQ120" s="36"/>
-      <c r="AR120" s="36"/>
-      <c r="AS120" s="36"/>
-      <c r="AT120" s="36"/>
-      <c r="AU120" s="36"/>
-      <c r="AV120" s="36"/>
-      <c r="AW120" s="36"/>
-      <c r="AX120" s="36"/>
-      <c r="AY120" s="36"/>
-      <c r="AZ120" s="35"/>
+      <c r="A120" s="39"/>
+      <c r="AZ120" s="38"/>
+    </row>
+    <row r="121" spans="1:52">
+      <c r="A121" s="39"/>
+      <c r="AZ121" s="38"/>
+    </row>
+    <row r="122" spans="1:52">
+      <c r="A122" s="39"/>
+      <c r="AZ122" s="38"/>
+    </row>
+    <row r="123" spans="1:52">
+      <c r="A123" s="39"/>
+      <c r="AZ123" s="38"/>
+    </row>
+    <row r="124" spans="1:52">
+      <c r="A124" s="37"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="36"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="P124" s="36"/>
+      <c r="Q124" s="36"/>
+      <c r="R124" s="36"/>
+      <c r="S124" s="36"/>
+      <c r="T124" s="36"/>
+      <c r="U124" s="36"/>
+      <c r="V124" s="36"/>
+      <c r="W124" s="36"/>
+      <c r="X124" s="36"/>
+      <c r="Y124" s="36"/>
+      <c r="Z124" s="36"/>
+      <c r="AA124" s="36"/>
+      <c r="AB124" s="36"/>
+      <c r="AC124" s="36"/>
+      <c r="AD124" s="36"/>
+      <c r="AE124" s="36"/>
+      <c r="AF124" s="36"/>
+      <c r="AG124" s="36"/>
+      <c r="AH124" s="36"/>
+      <c r="AI124" s="36"/>
+      <c r="AJ124" s="36"/>
+      <c r="AK124" s="36"/>
+      <c r="AL124" s="36"/>
+      <c r="AM124" s="36"/>
+      <c r="AN124" s="36"/>
+      <c r="AO124" s="36"/>
+      <c r="AP124" s="36"/>
+      <c r="AQ124" s="36"/>
+      <c r="AR124" s="36"/>
+      <c r="AS124" s="36"/>
+      <c r="AT124" s="36"/>
+      <c r="AU124" s="36"/>
+      <c r="AV124" s="36"/>
+      <c r="AW124" s="36"/>
+      <c r="AX124" s="36"/>
+      <c r="AY124" s="36"/>
+      <c r="AZ124" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="E40:AH40"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A78:AZ78"/>
-    <mergeCell ref="A91:AZ91"/>
+    <mergeCell ref="A80:AZ80"/>
+    <mergeCell ref="A95:AZ95"/>
     <mergeCell ref="AQ1:AZ1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:X2"/>
@@ -24790,7 +24909,7 @@
     <oddFooter>&amp;C&amp;8- &amp;P-1 -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="95" max="16383" man="1"/>
+    <brk id="99" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>